--- a/DB 설계서.xlsx
+++ b/DB 설계서.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\안녕\Desktop\3학년 db설계\설계\DB설계(ERD)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\졸작\설계\DB설계(ERD)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="11310" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="14625" windowHeight="10035" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,711 +19,742 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="234">
-  <x:si>
-    <x:t>LearningMaterial(학습자료)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userAnswerDescription</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서 (예시: 일부 테이블만)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB 테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체 진행률 (예: 0.7 → 70%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>읽음 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quizID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK -&gt; Admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퀴즈 댓글 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퀴즈 진행도 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 퀴즈 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 퀴즈 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AI 응답 기록 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴스 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴스 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>newsID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원문 링크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달성 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수집된 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → UserQuiz or AdminQuiz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 고유 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 테이블 참조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dateCreated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>commentID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 고유 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 메시지 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관련 댓글 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관련 퀴즈 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 대상 사용자 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT false</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notificationID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>completedAt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>progressID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퀴즈 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>unitDescription</x:t>
-  </x:si>
-  <x:si>
-    <x:t>languageType</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="244">
+  <x:si>
+    <x:t>currentTime: 현재 영상의 재생 위치 기본값 0
+totalDuration: 영상의 전체 길이필수(required: true)
+progressPercent: 영상 시청률0~100 사이 값 (min/max 사용 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LearningUnit (대단원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>learningMaterialID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>resetPasswordToken</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재설정용 토큰 값 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminPermissions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK → CommunityBoard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리 ("node.js", "git", "사용자 제출" 등)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userAnswerAIRespond</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Achievement (업적)</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">토큰 만료 시간 (예: 1시간)
 </x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>Notification</x:t>
-    </x:r>
+    <x:t xml:space="preserve">CommunityComment </x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT 'normal'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quizProgressStatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조건 유형 ("퀴즈 해결완료, 미해결에 대한 퀴즈 수 업적")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK → Achievement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업로드된 파일 URL 또는 경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userQuizStatusID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userAchievementID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNIQUE, NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminQuizStatusID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK → CommunityPost</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ITNews (뉴스 콘텐츠) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>communityCommentID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태 ("해결완료", "미해결")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subUnitDescription</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userQuizAnswerID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK -&gt; UserQuiz(UserQuizStatus ID)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK -&gt; AdminQuiz(AdminQuizStatus ID)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NEW: 토픽(강의) ID 필드 추가
+메인화면 바로가기 시 필요한 토픽과 토픽 api 상호작용.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대단원 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>unitID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>북마크 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>title</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AIDB </x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>string</x:t>
+  </x:si>
+  <x:si>
+    <x:t>integer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 본문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>읽음 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퀴즈 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제약조건</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대단원 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴스 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴스 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달성 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quizID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퀴즈 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수집된 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>topic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원문 링크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습자료 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습자료 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소단원 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소단원 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aidbID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>boolean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>size</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Admin </x:t>
+  </x:si>
+  <x:si>
+    <x:t>대단원 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업적 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업로드 일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업적 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> User </x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첨부파일 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isRead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reward</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자료 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소단원 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI의 응답</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL 허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업적 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>message</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퀴즈 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습자료 위치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userAnswerDescription</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK → LearningMaterial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퀴즈 상태 ("해결완료", "미해결")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>resetPasswordExpires</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LearningSubUnit (소단원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 권한 (사용자관리, 뉴스작성 등)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>learningProgressStatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체 진행률 (예: 0.7 → 70%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서 (예시: 일부 테이블만)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LearningMaterial(학습자료)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attachmentID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>commentCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글이 달린 게시글 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK → UserQuizAnswer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태그 ("AI", "IT", 등)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK, FK → User, required: true, ref: User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보상 (ex. 뱃지 이름)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>unitDescription</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT false</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">CommunityBoard </x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 대상 사용자 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>correctAnswer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK → Bookmark</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이건 타입이 없어요..</x:t>
+  </x:si>
+  <x:si>
+    <x:t>languageType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"CommunityComment", "QuizComment" 댓글 구별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK → CommunityComment or QuizComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quizModel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isAchieved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 업적 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UserQuiz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성 관리자 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴스 내용 요약</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Attachment </x:t>
+  </x:si>
+  <x:si>
+    <x:t>퀴즈 댓글 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dateCreated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 퀴즈 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI 응답 기록 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB 테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 메시지 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 고유 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퀴즈 진행도 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 고유 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 퀴즈 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK -&gt; Admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dateFetched</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK → User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>commentID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 테이블 참조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>viewCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>boardType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>commuPostID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>completedAt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 답변 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Bookmark </x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관련 댓글 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 작성자 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>unitTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소속 게시판 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관련 퀴즈 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 게시글 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업적 Image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uploadedAt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userQuizID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 고유 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AdminQuiz </x:t>
+  </x:si>
+  <x:si>
+    <x:t>북마크한 사용자 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업적 달성 일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK → Admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subUnitID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bookmarkID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 퀴즈 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quizType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>filePath</x:t>
+  </x:si>
+  <x:si>
+    <x:t>createdAt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퀴즈 설명 또는 문제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 답변 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 퀴즈 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminQuizID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quizProgressID</x:t>
   </x:si>
   <x:si>
     <x:t>파일 크기 (bytes)</x:t>
   </x:si>
   <x:si>
-    <x:t>업로드 일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첨부파일 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subUnitDescription</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isRead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 작성자 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminID</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Attachment </x:t>
-  </x:si>
-  <x:si>
-    <x:t>boolean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Enum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제약조건</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>string</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quizProgressID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퀴즈 설명</x:t>
+    <x:t>commentModel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userPermission</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT NOW()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 권한 (일반/관리자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>commuBoardID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notificationID</x:t>
   </x:si>
   <x:si>
     <x:t>사용자 퀴즈 답안 ID</x:t>
   </x:si>
   <x:si>
-    <x:t>사용자 답변 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퀴즈 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>integer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북마크 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">CommunityComment </x:t>
-  </x:si>
-  <x:si>
-    <x:t>생성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tag</x:t>
+    <x:t>Notification</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소단원 상태 (연결됨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK → AdminQuiz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK → UserQuiz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>communityPostID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>conditionValue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 제출 답안 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subUnitStatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>videoProgress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quizCommentID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>achievementID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dateAchieved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>materialType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userAIAnswer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subUnitTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">QuizComment </x:t>
+  </x:si>
+  <x:si>
+    <x:t>userQuizComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">CommunityPost </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">QuizProgress </x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결된 학습 자료 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UserQuizAnswer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>conditionType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>required: true</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 AI에게 보낸 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언어 유형 ("Git", "JS", "Node")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK → LearningSubUnit.status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퀴즈 유형 ("단답", "오지선다", "실습")</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">UserAchievement (사용자 업적) </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Bookmark </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AIDB </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Achievement (업적)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNIQUE, NOT NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT NOW()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 권한 (일반/관리자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT '일반'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userPermission</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언어 유형 ("Git", "JS", "Node")</x:t>
-  </x:si>
-  <x:si>
-    <x:t>boardType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>commuBoardID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>unitTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업적 Image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 게시글 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uploadedAt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>commuPostID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT 0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소속 게시판 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>viewCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>commentCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글이 달린 게시글 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attachmentID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>communityPostID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 고유 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>createdAt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quizProgressStatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userAnswerAIRespond</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userQuizID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bookmarkID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 퀴즈 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quizType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퀴즈 설명 또는 문제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminQuizStatusID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userQuizAnswerID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userQuizStatusID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태 ("해결완료", "미해결")</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → UserQuizAnswer</x:t>
-  </x:si>
-  <x:si>
     <x:t>게시판 종류 (공지 / JS / Git 등)</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">CommunityBoard </x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminPermissions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재설정용 토큰 값 저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>message</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 권한 (사용자관리, 뉴스작성 등)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subUnitID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대단원 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>unitID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대단원 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대단원 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → LearningMaterial</x:t>
-  </x:si>
-  <x:si>
-    <x:t>learningProgressStatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퀴즈 유형 ("단답", "오지선다", "실습")</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → LearningSubUnit.status</x:t>
-  </x:si>
-  <x:si>
     <x:t>조건 값 (예: 퀴즈 10개 완료 → 10)</x:t>
   </x:si>
   <x:si>
-    <x:t>LearningSubUnit (소단원)</x:t>
+    <x:t>FK → UserQuiz or AdminQuiz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LearningProgress  (학습 진행도)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퀴즈 카테고리 ("node.js", "git", 등)</x:t>
   </x:si>
   <x:si>
     <x:t>정답 여부 ("Correct", "Incorrect")</x:t>
   </x:si>
   <x:si>
-    <x:t>퀴즈 카테고리 ("node.js", "git", 등)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 제출 답안 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>correctAnswer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → Bookmark</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북마크한 사용자 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퀴즈 상태 ("해결완료", "미해결")</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습자료 위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>communityCommentID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → CommunityPost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → CommunityBoard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 본문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → AdminQuiz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UserQuizAnswer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → UserQuiz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리 ("node.js", "git", "사용자 제출" 등)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>filePath</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업적 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aidbID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AI의 응답</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reward</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업적 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업적 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>conditionValue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>achievementID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>conditionType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dateAchieved</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userAchievementID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → Achievement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LearningUnit (대단원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ITNews (뉴스 콘텐츠) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>learningMaterialID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업로드된 파일 URL 또는 경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AdminQuiz </x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>url</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subUnitStatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subUnitTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연결된 학습 자료 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>materialType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소단원 상태 (연결됨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> User </x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>완료된 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소단원 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습자료 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소단원 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소단원 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자료 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 ID</x:t>
+    <x:t>자료 유형 ("videos", "document")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소단원 상태 ("완료", "진행 중", "미완료")</x:t>
   </x:si>
   <x:si>
     <x:t>현재 진행 상태 ("완료", "진행 중", "미완료")</x:t>
   </x:si>
   <x:si>
-    <x:t>자료 유형 ("videos", "document")</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소단원 상태 ("완료", "진행 중", "미완료")</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userQuizComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 AI에게 보낸 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quizCommentID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userAIAnswer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 퀴즈 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminQuizID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 답변 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → Admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">CommunityPost </x:t>
-  </x:si>
-  <x:si>
-    <x:t>LearningProgress  (학습 진행도)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업적 달성 일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 업적 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isAchieved</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴스 내용 요약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dateFetched</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UserQuiz</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Admin </x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성 관리자 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">QuizComment </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">QuizProgress </x:t>
-  </x:si>
-  <x:si>
-    <x:t>보상 (ex. 뱃지 이름)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK → CommunityComment or QuizComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이건 타입이 없어요..</x:t>
-  </x:si>
-  <x:si>
-    <x:t>image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK -&gt; AdminQuiz(AdminQuizStatus ID)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK -&gt; UserQuiz(UserQuizStatus ID)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조건 유형 ("퀴즈 해결완료, 미해결에 대한 퀴즈 수 업적")</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>태그 ("AI", "IT", 등)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>resetPasswordExpires</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL 허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>resetPasswordToken</x:t>
+    <x:t>"UserQuiz", "AdminQuiz" 퀴즈 구별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 ID (User 테이블을 참조하며, 기본키 역할도 함)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -761,56 +792,24 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="18"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="18"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="18"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="17"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="17"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="17"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
   </x:fonts>
   <x:fills count="13">
     <x:fill>
@@ -822,18 +821,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="ffbaff1a"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ff42c7f1"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffff0000"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -875,13 +862,25 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffffff"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ff42c7f1"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor rgb="ffebdef1"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffffff"/>
+        <x:fgColor rgb="ffff0000"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -955,37 +954,27 @@
     <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -1004,19 +993,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1045,9 +1028,25 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -1768,10 +1767,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:XFC185"/>
+  <x:dimension ref="A1:XFC190"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C80" activeCellId="0" sqref="C80:C80"/>
+    <x:sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C94" activeCellId="0" sqref="C94:C94"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1782,256 +1781,256 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="27" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B1" s="28" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C1" s="28" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="28" t="s">
-        <x:v>2</x:v>
+      <x:c r="A1" s="25" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B1" s="26" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C1" s="26" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D1" s="26" t="s">
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="28" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="28" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C2" s="28" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D2" s="28" t="s">
-        <x:v>2</x:v>
+      <x:c r="A2" s="26" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B2" s="26" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C2" s="26" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D2" s="26" t="s">
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="28" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="28" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C3" s="28" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D3" s="28" t="s">
-        <x:v>2</x:v>
+      <x:c r="A3" s="26" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B3" s="26" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C3" s="26" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D3" s="26" t="s">
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A4" s="9" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="B4" s="9"/>
-      <x:c r="C4" s="9"/>
-      <x:c r="D4" s="9"/>
+      <x:c r="A4" s="24" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B4" s="24"/>
+      <x:c r="C4" s="24"/>
+      <x:c r="D4" s="24"/>
     </x:row>
     <x:row r="5" spans="1:4" ht="26.35000000000000142109" customHeight="1">
-      <x:c r="A5" s="29"/>
-      <x:c r="B5" s="29"/>
-      <x:c r="C5" s="29"/>
-      <x:c r="D5" s="29"/>
+      <x:c r="A5" s="23"/>
+      <x:c r="B5" s="23"/>
+      <x:c r="C5" s="23"/>
+      <x:c r="D5" s="23"/>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D7" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D8" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>84</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D10" s="5" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="5" t="s">
-        <x:v>233</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B12" s="5" t="s">
-        <x:v>232</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>231</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D12" s="5" t="s">
-        <x:v>125</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4" ht="32.75">
       <x:c r="A13" s="5" t="s">
-        <x:v>230</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B13" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>231</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="5" t="s">
-        <x:v>88</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D14" s="5" t="s">
-        <x:v>86</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4" ht="24.89999999999999857891">
-      <x:c r="A15" s="10" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="B15" s="10"/>
-      <x:c r="C15" s="10"/>
-      <x:c r="D15" s="10"/>
+      <x:c r="A15" s="27" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B15" s="27"/>
+      <x:c r="C15" s="27"/>
+      <x:c r="D15" s="27"/>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B16" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B17" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D17" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B18" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D18" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4" ht="32.75">
       <x:c r="A19" s="5" t="s">
-        <x:v>124</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B19" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C19" s="5"/>
       <x:c r="D19" s="5" t="s">
-        <x:v>127</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:16383" s="7" customFormat="1" ht="26.35000000000000142109">
-      <x:c r="A20" s="12" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B20" s="12"/>
-      <x:c r="C20" s="12"/>
-      <x:c r="D20" s="12"/>
+      <x:c r="A20" s="10" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B20" s="10"/>
+      <x:c r="C20" s="10"/>
+      <x:c r="D20" s="10"/>
       <x:c r="E20" s="2"/>
       <x:c r="F20" s="2"/>
       <x:c r="G20" s="2"/>
@@ -18414,1992 +18413,2056 @@
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B21" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D21" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
       <x:c r="A22" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B22" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C22" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D22" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="A23" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B23" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C23" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D23" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4" ht="32.75">
       <x:c r="A24" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B24" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C24" s="5" t="s">
-        <x:v>222</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D24" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:4">
+    <x:row r="25" spans="1:4" ht="32.75">
       <x:c r="A25" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B25" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C25" s="5" t="s">
-        <x:v>21</x:v>
-      </x:c>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C25" s="5"/>
       <x:c r="D25" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
       <x:c r="A26" s="5" t="s">
-        <x:v>126</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B26" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C26" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D26" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:4">
+    <x:row r="27" spans="1:4" ht="32.75">
       <x:c r="A27" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B27" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C27" s="5" t="s">
-        <x:v>32</x:v>
-      </x:c>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C27" s="5"/>
       <x:c r="D27" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="A28" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B28" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C28" s="5" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D28" s="5" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="5" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B29" s="5" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C28" s="5" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D28" s="5" t="s">
-        <x:v>78</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:4" ht="26.35000000000000142109" customHeight="1">
-      <x:c r="A29" s="11" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="B29" s="13"/>
-      <x:c r="C29" s="13"/>
-      <x:c r="D29" s="13"/>
+      <x:c r="C29" s="5" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D29" s="5" t="s">
+        <x:v>42</x:v>
+      </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
-      <x:c r="A30" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B30" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C30" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D30" s="4" t="s">
-        <x:v>55</x:v>
+      <x:c r="A30" s="5" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B30" s="5" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C30" s="5" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D30" s="5" t="s">
+        <x:v>135</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:4">
-      <x:c r="A31" s="5" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B31" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C31" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D31" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
+    <x:row r="31" spans="1:4" ht="26.35000000000000142109" customHeight="1">
+      <x:c r="A31" s="9" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B31" s="28"/>
+      <x:c r="C31" s="28"/>
+      <x:c r="D31" s="28"/>
     </x:row>
     <x:row r="32" spans="1:4">
-      <x:c r="A32" s="5" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B32" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C32" s="5" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D32" s="5" t="s">
-        <x:v>122</x:v>
+      <x:c r="A32" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B32" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C32" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D32" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A33" s="11" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="B33" s="14"/>
-      <x:c r="C33" s="14"/>
-      <x:c r="D33" s="14"/>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="5" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B33" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C33" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D33" s="5" t="s">
+        <x:v>62</x:v>
+      </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
-      <x:c r="A34" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B34" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C34" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D34" s="4" t="s">
-        <x:v>55</x:v>
+      <x:c r="A34" s="5" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B34" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C34" s="5" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D34" s="5" t="s">
+        <x:v>233</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:4">
-      <x:c r="A35" s="5" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B35" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C35" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D35" s="5" t="s">
-        <x:v>157</x:v>
-      </x:c>
+    <x:row r="35" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A35" s="9" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B35" s="11"/>
+      <x:c r="C35" s="11"/>
+      <x:c r="D35" s="11"/>
     </x:row>
     <x:row r="36" spans="1:4">
-      <x:c r="A36" s="5" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B36" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C36" s="5" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="D36" s="5" t="s">
-        <x:v>98</x:v>
+      <x:c r="A36" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B36" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C36" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D36" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B37" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C37" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D37" s="5" t="s">
-        <x:v>158</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
       <x:c r="A38" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B38" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C38" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D38" s="5" t="s">
-        <x:v>156</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B39" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C39" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D39" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B40" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C40" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D40" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
       <x:c r="A41" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B41" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C41" s="5" t="s">
-        <x:v>97</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D41" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
       <x:c r="A42" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B42" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C42" s="5" t="s">
-        <x:v>97</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D42" s="5" t="s">
-        <x:v>151</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:4" ht="26.35000000000000142109" customHeight="1">
-      <x:c r="A43" s="11" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B43" s="15"/>
-      <x:c r="C43" s="15"/>
-      <x:c r="D43" s="15"/>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="5" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B43" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="5" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D43" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
     </x:row>
     <x:row r="44" spans="1:4">
-      <x:c r="A44" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B44" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C44" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D44" s="4" t="s">
-        <x:v>55</x:v>
+      <x:c r="A44" s="5" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B44" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C44" s="5" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D44" s="5" t="s">
+        <x:v>94</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:4">
-      <x:c r="A45" s="5" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="B45" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C45" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D45" s="5" t="s">
-        <x:v>153</x:v>
-      </x:c>
+    <x:row r="45" spans="1:4" ht="26.35000000000000142109" customHeight="1">
+      <x:c r="A45" s="9" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B45" s="29"/>
+      <x:c r="C45" s="29"/>
+      <x:c r="D45" s="29"/>
     </x:row>
     <x:row r="46" spans="1:4">
-      <x:c r="A46" s="5" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B46" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C46" s="5" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D46" s="5" t="s">
-        <x:v>102</x:v>
+      <x:c r="A46" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B46" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C46" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D46" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
       <x:c r="A47" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B47" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C47" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D47" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B48" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C48" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D48" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:4">
       <x:c r="A49" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B49" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C49" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D49" s="5" t="s">
-        <x:v>155</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:4" ht="26.35000000000000142109" customHeight="1">
-      <x:c r="A50" s="11" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B50" s="15"/>
-      <x:c r="C50" s="15"/>
-      <x:c r="D50" s="15"/>
+    <x:row r="50" spans="1:4">
+      <x:c r="A50" s="5" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B50" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C50" s="5" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D50" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
     </x:row>
     <x:row r="51" spans="1:4">
-      <x:c r="A51" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B51" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C51" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D51" s="4" t="s">
-        <x:v>55</x:v>
+      <x:c r="A51" s="5" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B51" s="5" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C51" s="5" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D51" s="5" t="s">
+        <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:4">
-      <x:c r="A52" s="5" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B52" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C52" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D52" s="5" t="s">
-        <x:v>43</x:v>
-      </x:c>
+    <x:row r="52" spans="1:4" ht="26.35000000000000142109" customHeight="1">
+      <x:c r="A52" s="9" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B52" s="29"/>
+      <x:c r="C52" s="29"/>
+      <x:c r="D52" s="29"/>
     </x:row>
     <x:row r="53" spans="1:4">
-      <x:c r="A53" s="5" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B53" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C53" s="5" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D53" s="5" t="s">
-        <x:v>94</x:v>
+      <x:c r="A53" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B53" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C53" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D53" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:4">
       <x:c r="A54" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B54" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C54" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D54" s="5" t="s">
-        <x:v>182</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:4">
       <x:c r="A55" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B55" s="5" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C55" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C55" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="D55" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:4">
       <x:c r="A56" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B56" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C56" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D56" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:4">
       <x:c r="A57" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B57" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C57" s="5" t="s">
-        <x:v>107</x:v>
-      </x:c>
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C57" s="5"/>
       <x:c r="D57" s="5" t="s">
-        <x:v>180</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A58" s="16" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="B58" s="17"/>
-      <x:c r="C58" s="17"/>
-      <x:c r="D58" s="17"/>
+    <x:row r="58" spans="1:4">
+      <x:c r="A58" s="5" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B58" s="5" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C58" s="5" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D58" s="5" t="s">
+        <x:v>72</x:v>
+      </x:c>
     </x:row>
     <x:row r="59" spans="1:4">
-      <x:c r="A59" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B59" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C59" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D59" s="4" t="s">
-        <x:v>55</x:v>
+      <x:c r="A59" s="5" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B59" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C59" s="5" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D59" s="5" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:4">
-      <x:c r="A60" s="5" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="B60" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C60" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D60" s="5" t="s">
-        <x:v>129</x:v>
-      </x:c>
+    <x:row r="60" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A60" s="12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B60" s="13"/>
+      <x:c r="C60" s="13"/>
+      <x:c r="D60" s="13"/>
     </x:row>
     <x:row r="61" spans="1:4">
-      <x:c r="A61" s="5" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B61" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C61" s="5" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D61" s="5" t="s">
-        <x:v>131</x:v>
+      <x:c r="A61" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B61" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C61" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D61" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:4">
       <x:c r="A62" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B62" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C62" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C62" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
       <x:c r="D62" s="5" t="s">
-        <x:v>132</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:4">
       <x:c r="A63" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B63" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C63" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C63" s="5" t="s">
+        <x:v>179</x:v>
+      </x:c>
       <x:c r="D63" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A64" s="16" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="B64" s="17"/>
-      <x:c r="C64" s="17"/>
-      <x:c r="D64" s="17"/>
+    <x:row r="64" spans="1:4">
+      <x:c r="A64" s="5" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B64" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C64" s="5"/>
+      <x:c r="D64" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
     </x:row>
-    <x:row r="65" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A65" s="6"/>
-      <x:c r="B65" s="3"/>
-      <x:c r="C65" s="3"/>
-      <x:c r="D65" s="3"/>
+    <x:row r="65" spans="1:4">
+      <x:c r="A65" s="5" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B65" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C65" s="5"/>
+      <x:c r="D65" s="5" t="s">
+        <x:v>229</x:v>
+      </x:c>
     </x:row>
-    <x:row r="66" spans="1:4">
-      <x:c r="A66" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B66" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C66" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D66" s="4" t="s">
-        <x:v>55</x:v>
-      </x:c>
+    <x:row r="66" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A66" s="12" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B66" s="13"/>
+      <x:c r="C66" s="13"/>
+      <x:c r="D66" s="13"/>
     </x:row>
-    <x:row r="67" spans="1:4">
-      <x:c r="A67" s="5" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="B67" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C67" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D67" s="5" t="s">
-        <x:v>192</x:v>
-      </x:c>
+    <x:row r="67" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A67" s="6"/>
+      <x:c r="B67" s="3"/>
+      <x:c r="C67" s="3"/>
+      <x:c r="D67" s="3"/>
     </x:row>
-    <x:row r="68" spans="1:4" ht="32.75">
-      <x:c r="A68" s="5" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="B68" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C68" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D68" s="5" t="s">
-        <x:v>200</x:v>
+    <x:row r="68" spans="1:4">
+      <x:c r="A68" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B68" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C68" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D68" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:4">
       <x:c r="A69" s="5" t="s">
-        <x:v>179</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B69" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C69" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D69" s="5" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C69" s="5" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D69" s="5" t="s">
-        <x:v>186</x:v>
-      </x:c>
     </x:row>
-    <x:row r="70" spans="1:4">
+    <x:row r="70" spans="1:4" ht="32.75">
       <x:c r="A70" s="5" t="s">
-        <x:v>185</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B70" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C70" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D70" s="5" t="s">
-        <x:v>195</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:4">
       <x:c r="A71" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B71" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C71" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C71" s="5" t="s">
+        <x:v>101</x:v>
+      </x:c>
       <x:c r="D71" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:4">
       <x:c r="A72" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B72" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C72" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C72" s="5" t="s">
+        <x:v>179</x:v>
+      </x:c>
       <x:c r="D72" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:4">
-      <x:c r="A73" s="5"/>
-      <x:c r="B73" s="5"/>
+      <x:c r="A73" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B73" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="C73" s="5"/>
-      <x:c r="D73" s="5"/>
+      <x:c r="D73" s="5" t="s">
+        <x:v>85</x:v>
+      </x:c>
     </x:row>
-    <x:row r="74" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A74" s="16" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B74" s="17"/>
-      <x:c r="C74" s="17"/>
-      <x:c r="D74" s="17"/>
+    <x:row r="74" spans="1:4">
+      <x:c r="A74" s="5" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B74" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C74" s="5"/>
+      <x:c r="D74" s="5" t="s">
+        <x:v>229</x:v>
+      </x:c>
     </x:row>
-    <x:row r="75" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A75" s="6"/>
-      <x:c r="B75" s="3"/>
-      <x:c r="C75" s="3"/>
-      <x:c r="D75" s="3"/>
+    <x:row r="75" spans="1:4">
+      <x:c r="A75" s="5"/>
+      <x:c r="B75" s="5"/>
+      <x:c r="C75" s="5"/>
+      <x:c r="D75" s="5"/>
     </x:row>
-    <x:row r="76" spans="1:4">
-      <x:c r="A76" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B76" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C76" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D76" s="4" t="s">
-        <x:v>55</x:v>
-      </x:c>
+    <x:row r="76" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A76" s="12" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B76" s="13"/>
+      <x:c r="C76" s="13"/>
+      <x:c r="D76" s="13"/>
     </x:row>
-    <x:row r="77" spans="1:4">
-      <x:c r="A77" s="5" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="B77" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C77" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D77" s="5" t="s">
-        <x:v>193</x:v>
-      </x:c>
+    <x:row r="77" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A77" s="6"/>
+      <x:c r="B77" s="3"/>
+      <x:c r="C77" s="3"/>
+      <x:c r="D77" s="3"/>
     </x:row>
-    <x:row r="78" spans="1:4" ht="32.75">
-      <x:c r="A78" s="5" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="B78" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C78" s="5"/>
-      <x:c r="D78" s="5" t="s">
-        <x:v>199</x:v>
+    <x:row r="78" spans="1:4">
+      <x:c r="A78" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B78" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C78" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D78" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:4">
       <x:c r="A79" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B79" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C79" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C79" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
       <x:c r="D79" s="5" t="s">
-        <x:v>196</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:4">
+    <x:row r="80" spans="1:4" ht="60" customHeight="1">
       <x:c r="A80" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B80" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C80" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C80" s="5" t="s">
+        <x:v>227</x:v>
+      </x:c>
       <x:c r="D80" s="5" t="s">
-        <x:v>146</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:4">
       <x:c r="A81" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B81" s="5" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C81" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C81" s="5" t="s">
+        <x:v>227</x:v>
+      </x:c>
       <x:c r="D81" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:4">
+    <x:row r="82" spans="1:4" ht="32.75">
       <x:c r="A82" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B82" s="5" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C82" s="5"/>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C82" s="5" t="s">
+        <x:v>227</x:v>
+      </x:c>
       <x:c r="D82" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:4">
-      <x:c r="A83" s="5"/>
-      <x:c r="B83" s="5"/>
+      <x:c r="A83" s="5" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B83" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="C83" s="5"/>
-      <x:c r="D83" s="5"/>
+      <x:c r="D83" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
     </x:row>
-    <x:row r="84" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A84" s="16" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="B84" s="17"/>
-      <x:c r="C84" s="17"/>
-      <x:c r="D84" s="17"/>
+    <x:row r="84" spans="1:4">
+      <x:c r="A84" s="5" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B84" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C84" s="5" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="D84" s="5" t="s">
+        <x:v>99</x:v>
+      </x:c>
     </x:row>
-    <x:row r="85" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A85" s="6"/>
-      <x:c r="B85" s="3"/>
-      <x:c r="C85" s="3"/>
-      <x:c r="D85" s="3"/>
+    <x:row r="85" spans="1:4">
+      <x:c r="A85" s="5" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B85" s="5" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C85" s="5"/>
+      <x:c r="D85" s="5" t="s">
+        <x:v>135</x:v>
+      </x:c>
     </x:row>
     <x:row r="86" spans="1:4">
-      <x:c r="A86" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B86" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C86" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D86" s="4" t="s">
-        <x:v>55</x:v>
+      <x:c r="A86" s="5" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B86" s="5" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C86" s="5"/>
+      <x:c r="D86" s="5" t="s">
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:4">
-      <x:c r="A87" s="5" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B87" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C87" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D87" s="5" t="s">
-        <x:v>197</x:v>
-      </x:c>
+      <x:c r="A87" s="5"/>
+      <x:c r="B87" s="5"/>
+      <x:c r="C87" s="5"/>
+      <x:c r="D87" s="5"/>
     </x:row>
-    <x:row r="88" spans="1:4">
-      <x:c r="A88" s="5" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="B88" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C88" s="5" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="D88" s="5" t="s">
-        <x:v>188</x:v>
-      </x:c>
+    <x:row r="88" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A88" s="12" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B88" s="13"/>
+      <x:c r="C88" s="13"/>
+      <x:c r="D88" s="13"/>
     </x:row>
-    <x:row r="89" spans="1:4">
-      <x:c r="A89" s="5" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B89" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C89" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D89" s="5" t="s">
-        <x:v>190</x:v>
-      </x:c>
+    <x:row r="89" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A89" s="6"/>
+      <x:c r="B89" s="3"/>
+      <x:c r="C89" s="3"/>
+      <x:c r="D89" s="3"/>
     </x:row>
-    <x:row r="90" spans="1:4" ht="32.75">
-      <x:c r="A90" s="5" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="B90" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C90" s="5"/>
-      <x:c r="D90" s="5" t="s">
-        <x:v>198</x:v>
+    <x:row r="90" spans="1:4">
+      <x:c r="A90" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B90" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C90" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D90" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:4">
+    <x:row r="91" spans="1:4" ht="32.75">
       <x:c r="A91" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B91" s="5" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C91" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C91" s="5" t="s">
+        <x:v>115</x:v>
+      </x:c>
       <x:c r="D91" s="5" t="s">
-        <x:v>191</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A92" s="18" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="B92" s="19"/>
-      <x:c r="C92" s="19"/>
-      <x:c r="D92" s="19"/>
+    <x:row r="92" spans="1:4">
+      <x:c r="A92" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B92" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C92" s="5" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="D92" s="5"/>
     </x:row>
-    <x:row r="93" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A93" s="6"/>
-      <x:c r="B93" s="3"/>
-      <x:c r="C93" s="3"/>
-      <x:c r="D93" s="3"/>
+    <x:row r="93" spans="1:4">
+      <x:c r="A93" s="5" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B93" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C93" s="5" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D93" s="5" t="s">
+        <x:v>206</x:v>
+      </x:c>
     </x:row>
-    <x:row r="94" spans="1:4">
-      <x:c r="A94" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B94" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C94" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D94" s="4" t="s">
-        <x:v>55</x:v>
+    <x:row r="94" spans="1:4" ht="32.75">
+      <x:c r="A94" s="5" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B94" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C94" s="5"/>
+      <x:c r="D94" s="5" t="s">
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:4">
       <x:c r="A95" s="5" t="s">
-        <x:v>111</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B95" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C95" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D95" s="5" t="s">
-        <x:v>113</x:v>
-      </x:c>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C95" s="5"/>
+      <x:c r="D95" s="5"/>
     </x:row>
-    <x:row r="96" spans="1:4">
+    <x:row r="96" spans="1:4" ht="147.34999999999999431566">
       <x:c r="A96" s="5" t="s">
-        <x:v>119</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B96" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C96" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C96" s="5"/>
       <x:c r="D96" s="5" t="s">
-        <x:v>145</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:4">
-      <x:c r="A97" s="5" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B97" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C97" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D97" s="5" t="s">
-        <x:v>190</x:v>
-      </x:c>
+    <x:row r="97" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A97" s="14" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B97" s="15"/>
+      <x:c r="C97" s="15"/>
+      <x:c r="D97" s="15"/>
     </x:row>
-    <x:row r="98" spans="1:4">
-      <x:c r="A98" s="5" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="B98" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C98" s="5" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D98" s="5" t="s">
-        <x:v>141</x:v>
-      </x:c>
+    <x:row r="98" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A98" s="6"/>
+      <x:c r="B98" s="3"/>
+      <x:c r="C98" s="3"/>
+      <x:c r="D98" s="3"/>
     </x:row>
     <x:row r="99" spans="1:4">
-      <x:c r="A99" s="5" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B99" s="5" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C99" s="5" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D99" s="5" t="s">
-        <x:v>75</x:v>
+      <x:c r="A99" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B99" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C99" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D99" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:4">
       <x:c r="A100" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B100" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C100" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D100" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:4">
       <x:c r="A101" s="5" t="s">
-        <x:v>142</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B101" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C101" s="5"/>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C101" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
       <x:c r="D101" s="5" t="s">
-        <x:v>139</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:4">
       <x:c r="A102" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B102" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C102" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C102" s="5" t="s">
+        <x:v>158</x:v>
+      </x:c>
       <x:c r="D102" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:4" ht="32.75">
+    <x:row r="103" spans="1:4">
       <x:c r="A103" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B103" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C103" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C103" s="5" t="s">
+        <x:v>113</x:v>
+      </x:c>
       <x:c r="D103" s="5" t="s">
-        <x:v>135</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:4" ht="32.75">
+    <x:row r="104" spans="1:4">
       <x:c r="A104" s="5" t="s">
-        <x:v>115</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B104" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C104" s="5"/>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C104" s="5" t="s">
+        <x:v>122</x:v>
+      </x:c>
       <x:c r="D104" s="5" t="s">
-        <x:v>140</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:4">
-      <x:c r="A105" s="5"/>
-      <x:c r="B105" s="5"/>
-      <x:c r="C105" s="5"/>
-      <x:c r="D105" s="5"/>
+      <x:c r="A105" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B105" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C105" s="5" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D105" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
     </x:row>
-    <x:row r="106" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A106" s="18" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="B106" s="19"/>
-      <x:c r="C106" s="19"/>
-      <x:c r="D106" s="19"/>
+    <x:row r="106" spans="1:4">
+      <x:c r="A106" s="5" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B106" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C106" s="5"/>
+      <x:c r="D106" s="5" t="s">
+        <x:v>238</x:v>
+      </x:c>
     </x:row>
-    <x:row r="107" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A107" s="6"/>
-      <x:c r="B107" s="3"/>
-      <x:c r="C107" s="3"/>
-      <x:c r="D107" s="3"/>
+    <x:row r="107" spans="1:4">
+      <x:c r="A107" s="5" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B107" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C107" s="5"/>
+      <x:c r="D107" s="5" t="s">
+        <x:v>191</x:v>
+      </x:c>
     </x:row>
-    <x:row r="108" spans="1:4">
-      <x:c r="A108" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B108" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C108" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D108" s="4" t="s">
-        <x:v>55</x:v>
+    <x:row r="108" spans="1:4" ht="32.75">
+      <x:c r="A108" s="5" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B108" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C108" s="5"/>
+      <x:c r="D108" s="5" t="s">
+        <x:v>231</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:4">
+    <x:row r="109" spans="1:4" ht="32.75">
       <x:c r="A109" s="5" t="s">
-        <x:v>206</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B109" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C109" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C109" s="5"/>
       <x:c r="D109" s="5" t="s">
-        <x:v>205</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:4">
-      <x:c r="A110" s="5" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="B110" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C110" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D110" s="5" t="s">
-        <x:v>120</x:v>
-      </x:c>
+      <x:c r="A110" s="5"/>
+      <x:c r="B110" s="5"/>
+      <x:c r="C110" s="5"/>
+      <x:c r="D110" s="5"/>
     </x:row>
-    <x:row r="111" spans="1:4">
-      <x:c r="A111" s="5" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B111" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C111" s="5" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="D111" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
+    <x:row r="111" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A111" s="14" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B111" s="15"/>
+      <x:c r="C111" s="15"/>
+      <x:c r="D111" s="15"/>
     </x:row>
-    <x:row r="112" spans="1:4">
-      <x:c r="A112" s="5" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="B112" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C112" s="5" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D112" s="5" t="s">
-        <x:v>207</x:v>
-      </x:c>
+    <x:row r="112" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A112" s="6"/>
+      <x:c r="B112" s="3"/>
+      <x:c r="C112" s="3"/>
+      <x:c r="D112" s="3"/>
     </x:row>
     <x:row r="113" spans="1:4">
-      <x:c r="A113" s="5" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B113" s="5" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C113" s="5" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D113" s="5" t="s">
-        <x:v>75</x:v>
+      <x:c r="A113" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B113" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C113" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D113" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:4">
       <x:c r="A114" s="5" t="s">
-        <x:v>142</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B114" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C114" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C114" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
       <x:c r="D114" s="5" t="s">
-        <x:v>139</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:4">
       <x:c r="A115" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B115" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C115" s="5"/>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C115" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
       <x:c r="D115" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:4">
       <x:c r="A116" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B116" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C116" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C116" s="5" t="s">
+        <x:v>183</x:v>
+      </x:c>
       <x:c r="D116" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:4" ht="32.75">
+    <x:row r="117" spans="1:4">
       <x:c r="A117" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B117" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C117" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C117" s="5" t="s">
+        <x:v>113</x:v>
+      </x:c>
       <x:c r="D117" s="5" t="s">
-        <x:v>135</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:4" ht="32.75">
+    <x:row r="118" spans="1:4">
       <x:c r="A118" s="5" t="s">
-        <x:v>115</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B118" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C118" s="5"/>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C118" s="5" t="s">
+        <x:v>122</x:v>
+      </x:c>
       <x:c r="D118" s="5" t="s">
-        <x:v>162</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A119" s="18" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="B119" s="19"/>
-      <x:c r="C119" s="19"/>
-      <x:c r="D119" s="19"/>
+    <x:row r="119" spans="1:4">
+      <x:c r="A119" s="5" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B119" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C119" s="5"/>
+      <x:c r="D119" s="5" t="s">
+        <x:v>238</x:v>
+      </x:c>
     </x:row>
-    <x:row r="120" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A120" s="6"/>
-      <x:c r="B120" s="3"/>
-      <x:c r="C120" s="3"/>
-      <x:c r="D120" s="3"/>
+    <x:row r="120" spans="1:4">
+      <x:c r="A120" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B120" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C120" s="5"/>
+      <x:c r="D120" s="5" t="s">
+        <x:v>97</x:v>
+      </x:c>
     </x:row>
     <x:row r="121" spans="1:4">
-      <x:c r="A121" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B121" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C121" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D121" s="4" t="s">
-        <x:v>55</x:v>
+      <x:c r="A121" s="5" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B121" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C121" s="5"/>
+      <x:c r="D121" s="5" t="s">
+        <x:v>98</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:4">
+    <x:row r="122" spans="1:4" ht="32.75">
       <x:c r="A122" s="5" t="s">
-        <x:v>118</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B122" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C122" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C122" s="5"/>
       <x:c r="D122" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:4">
+    <x:row r="123" spans="1:4" ht="32.75">
       <x:c r="A123" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B123" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C123" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C123" s="5"/>
       <x:c r="D123" s="5" t="s">
-        <x:v>190</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:4">
-      <x:c r="A124" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B124" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C124" s="5"/>
-      <x:c r="D124" s="5" t="s">
-        <x:v>72</x:v>
-      </x:c>
+    <x:row r="124" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A124" s="14" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B124" s="15"/>
+      <x:c r="C124" s="15"/>
+      <x:c r="D124" s="15"/>
     </x:row>
     <x:row r="125" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A125" s="20" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B125" s="21"/>
-      <x:c r="C125" s="21"/>
-      <x:c r="D125" s="21"/>
+      <x:c r="A125" s="6"/>
+      <x:c r="B125" s="3"/>
+      <x:c r="C125" s="3"/>
+      <x:c r="D125" s="3"/>
     </x:row>
-    <x:row r="126" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A126" s="6"/>
-      <x:c r="B126" s="3"/>
-      <x:c r="C126" s="3"/>
-      <x:c r="D126" s="3"/>
+    <x:row r="126" spans="1:4">
+      <x:c r="A126" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B126" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C126" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D126" s="4" t="s">
+        <x:v>129</x:v>
+      </x:c>
     </x:row>
     <x:row r="127" spans="1:4">
-      <x:c r="A127" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B127" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C127" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D127" s="4" t="s">
-        <x:v>55</x:v>
+      <x:c r="A127" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B127" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C127" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D127" s="5" t="s">
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:4">
       <x:c r="A128" s="5" t="s">
-        <x:v>112</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B128" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C128" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D128" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:4">
       <x:c r="A129" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B129" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C129" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C129" s="5"/>
       <x:c r="D129" s="5" t="s">
-        <x:v>144</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
-    <x:row r="130" spans="1:4">
-      <x:c r="A130" s="5" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="B130" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C130" s="5" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="D130" s="5" t="s">
-        <x:v>113</x:v>
-      </x:c>
+    <x:row r="130" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A130" s="16" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B130" s="17"/>
+      <x:c r="C130" s="17"/>
+      <x:c r="D130" s="17"/>
     </x:row>
-    <x:row r="131" spans="1:4">
-      <x:c r="A131" s="5" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="B131" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C131" s="5" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D131" s="5" t="s">
-        <x:v>205</x:v>
-      </x:c>
+    <x:row r="131" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A131" s="6"/>
+      <x:c r="B131" s="3"/>
+      <x:c r="C131" s="3"/>
+      <x:c r="D131" s="3"/>
     </x:row>
-    <x:row r="132" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A132" s="18" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="B132" s="19"/>
-      <x:c r="C132" s="19"/>
-      <x:c r="D132" s="19"/>
+    <x:row r="132" spans="1:4">
+      <x:c r="A132" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B132" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C132" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D132" s="4" t="s">
+        <x:v>129</x:v>
+      </x:c>
     </x:row>
-    <x:row r="133" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A133" s="6"/>
-      <x:c r="B133" s="3"/>
-      <x:c r="C133" s="3"/>
-      <x:c r="D133" s="3"/>
+    <x:row r="133" spans="1:4">
+      <x:c r="A133" s="5" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B133" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C133" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D133" s="5" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="134" spans="1:4">
-      <x:c r="A134" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B134" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C134" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D134" s="4" t="s">
-        <x:v>55</x:v>
+      <x:c r="A134" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B134" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C134" s="5" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D134" s="5" t="s">
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:4">
       <x:c r="A135" s="5" t="s">
-        <x:v>203</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B135" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C135" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D135" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:4">
       <x:c r="A136" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B136" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C136" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D136" s="5" t="s">
-        <x:v>158</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
-    <x:row r="137" spans="1:4">
-      <x:c r="A137" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B137" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C137" s="5" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D137" s="5" t="s">
-        <x:v>36</x:v>
-      </x:c>
+    <x:row r="137" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A137" s="14" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B137" s="15"/>
+      <x:c r="C137" s="15"/>
+      <x:c r="D137" s="15"/>
     </x:row>
-    <x:row r="138" spans="1:4">
-      <x:c r="A138" s="5" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="B138" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C138" s="5"/>
-      <x:c r="D138" s="5" t="s">
-        <x:v>150</x:v>
-      </x:c>
+    <x:row r="138" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A138" s="6"/>
+      <x:c r="B138" s="3"/>
+      <x:c r="C138" s="3"/>
+      <x:c r="D138" s="3"/>
     </x:row>
     <x:row r="139" spans="1:4">
-      <x:c r="A139" s="5" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B139" s="5" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C139" s="5" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D139" s="5" t="s">
-        <x:v>76</x:v>
+      <x:c r="A139" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B139" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C139" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D139" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:4">
-      <x:c r="A140" s="5"/>
-      <x:c r="B140" s="5"/>
-      <x:c r="C140" s="5"/>
-      <x:c r="D140" s="5"/>
+      <x:c r="A140" s="5" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B140" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C140" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D140" s="5" t="s">
+        <x:v>146</x:v>
+      </x:c>
     </x:row>
-    <x:row r="141" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A141" s="18" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="B141" s="19"/>
-      <x:c r="C141" s="19"/>
-      <x:c r="D141" s="19"/>
+    <x:row r="141" spans="1:4">
+      <x:c r="A141" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B141" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C141" s="5" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D141" s="5" t="s">
+        <x:v>86</x:v>
+      </x:c>
     </x:row>
-    <x:row r="142" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A142" s="6"/>
-      <x:c r="B142" s="3"/>
-      <x:c r="C142" s="3"/>
-      <x:c r="D142" s="3"/>
+    <x:row r="142" spans="1:4">
+      <x:c r="A142" s="5" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B142" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C142" s="5" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="D142" s="5" t="s">
+        <x:v>56</x:v>
+      </x:c>
     </x:row>
     <x:row r="143" spans="1:4">
-      <x:c r="A143" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B143" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C143" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D143" s="4" t="s">
-        <x:v>55</x:v>
+      <x:c r="A143" s="5" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B143" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C143" s="5"/>
+      <x:c r="D143" s="5" t="s">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:4">
       <x:c r="A144" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B144" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C144" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D144" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:4">
-      <x:c r="A145" s="5" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B145" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C145" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D145" s="5" t="s">
-        <x:v>190</x:v>
-      </x:c>
+      <x:c r="A145" s="5"/>
+      <x:c r="B145" s="5"/>
+      <x:c r="C145" s="5"/>
+      <x:c r="D145" s="5"/>
     </x:row>
-    <x:row r="146" spans="1:4" ht="32.75">
-      <x:c r="A146" s="5" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="B146" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C146" s="5" t="s">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="D146" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
+    <x:row r="146" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A146" s="14" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B146" s="15"/>
+      <x:c r="C146" s="15"/>
+      <x:c r="D146" s="15"/>
     </x:row>
-    <x:row r="147" spans="1:4" ht="32.75">
-      <x:c r="A147" s="5" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="B147" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C147" s="5" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="D147" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
+    <x:row r="147" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A147" s="6"/>
+      <x:c r="B147" s="3"/>
+      <x:c r="C147" s="3"/>
+      <x:c r="D147" s="3"/>
     </x:row>
     <x:row r="148" spans="1:4">
-      <x:c r="A148" s="5" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="B148" s="5" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C148" s="5"/>
-      <x:c r="D148" s="5" t="s">
-        <x:v>5</x:v>
+      <x:c r="A148" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B148" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C148" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D148" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:4">
-      <x:c r="A149" s="5"/>
-      <x:c r="B149" s="5"/>
-      <x:c r="C149" s="5"/>
-      <x:c r="D149" s="5"/>
+      <x:c r="A149" s="5" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B149" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C149" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D149" s="5" t="s">
+        <x:v>153</x:v>
+      </x:c>
     </x:row>
-    <x:row r="150" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A150" s="22" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B150" s="23"/>
-      <x:c r="C150" s="23"/>
-      <x:c r="D150" s="23"/>
+    <x:row r="150" spans="1:4">
+      <x:c r="A150" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B150" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C150" s="5" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D150" s="5" t="s">
+        <x:v>76</x:v>
+      </x:c>
     </x:row>
-    <x:row r="151" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A151" s="6"/>
-      <x:c r="B151" s="3"/>
-      <x:c r="C151" s="3"/>
-      <x:c r="D151" s="3"/>
+    <x:row r="151" spans="1:4" ht="32.75">
+      <x:c r="A151" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B151" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C151" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D151" s="5" t="s">
+        <x:v>148</x:v>
+      </x:c>
     </x:row>
-    <x:row r="152" spans="1:4">
-      <x:c r="A152" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B152" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C152" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D152" s="4" t="s">
-        <x:v>55</x:v>
+    <x:row r="152" spans="1:4" ht="32.75">
+      <x:c r="A152" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B152" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C152" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D152" s="5" t="s">
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:4">
       <x:c r="A153" s="5" t="s">
-        <x:v>166</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B153" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C153" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C153" s="5"/>
       <x:c r="D153" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:4">
-      <x:c r="A154" s="5" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B154" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C154" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D154" s="5" t="s">
-        <x:v>190</x:v>
-      </x:c>
+      <x:c r="A154" s="5"/>
+      <x:c r="B154" s="5"/>
+      <x:c r="C154" s="5"/>
+      <x:c r="D154" s="5"/>
     </x:row>
-    <x:row r="155" spans="1:4">
-      <x:c r="A155" s="5" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="B155" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C155" s="5"/>
-      <x:c r="D155" s="5" t="s">
-        <x:v>202</x:v>
-      </x:c>
+    <x:row r="155" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A155" s="18" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B155" s="19"/>
+      <x:c r="C155" s="19"/>
+      <x:c r="D155" s="19"/>
     </x:row>
-    <x:row r="156" spans="1:4">
-      <x:c r="A156" s="5" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="B156" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C156" s="5"/>
-      <x:c r="D156" s="5" t="s">
-        <x:v>167</x:v>
-      </x:c>
+    <x:row r="156" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A156" s="6"/>
+      <x:c r="B156" s="3"/>
+      <x:c r="C156" s="3"/>
+      <x:c r="D156" s="3"/>
     </x:row>
-    <x:row r="157" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A157" s="24" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="B157" s="25"/>
-      <x:c r="C157" s="25"/>
-      <x:c r="D157" s="25"/>
+    <x:row r="157" spans="1:4">
+      <x:c r="A157" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B157" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C157" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D157" s="4" t="s">
+        <x:v>129</x:v>
+      </x:c>
     </x:row>
-    <x:row r="158" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A158" s="6"/>
-      <x:c r="B158" s="3"/>
-      <x:c r="C158" s="3"/>
-      <x:c r="D158" s="3"/>
+    <x:row r="158" spans="1:4">
+      <x:c r="A158" s="5" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B158" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C158" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D158" s="5" t="s">
+        <x:v>149</x:v>
+      </x:c>
     </x:row>
     <x:row r="159" spans="1:4">
-      <x:c r="A159" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B159" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C159" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D159" s="4" t="s">
-        <x:v>55</x:v>
+      <x:c r="A159" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B159" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C159" s="5" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D159" s="5" t="s">
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:4">
       <x:c r="A160" s="5" t="s">
-        <x:v>172</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B160" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C160" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C160" s="5"/>
       <x:c r="D160" s="5" t="s">
-        <x:v>170</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:4">
       <x:c r="A161" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B161" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C161" s="5" t="s">
-        <x:v>107</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C161" s="5"/>
       <x:c r="D161" s="5" t="s">
-        <x:v>169</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="162" spans="1:4">
-      <x:c r="A162" s="5" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="B162" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C162" s="5"/>
-      <x:c r="D162" s="5" t="s">
-        <x:v>164</x:v>
-      </x:c>
+    <x:row r="162" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A162" s="20" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B162" s="21"/>
+      <x:c r="C162" s="21"/>
+      <x:c r="D162" s="21"/>
     </x:row>
-    <x:row r="163" spans="1:4">
-      <x:c r="A163" s="5" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B163" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C163" s="5"/>
-      <x:c r="D163" s="5" t="s">
-        <x:v>89</x:v>
-      </x:c>
+    <x:row r="163" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A163" s="6"/>
+      <x:c r="B163" s="3"/>
+      <x:c r="C163" s="3"/>
+      <x:c r="D163" s="3"/>
     </x:row>
     <x:row r="164" spans="1:4">
-      <x:c r="A164" s="5" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="B164" s="5" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="C164" s="5"/>
-      <x:c r="D164" s="5" t="s">
-        <x:v>93</x:v>
+      <x:c r="A164" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B164" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C164" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D164" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="165" spans="1:4" ht="32.75">
+    <x:row r="165" spans="1:4">
       <x:c r="A165" s="5" t="s">
-        <x:v>173</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B165" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C165" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C165" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
       <x:c r="D165" s="5" t="s">
-        <x:v>227</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
-    <x:row r="166" spans="1:4" ht="32.75">
+    <x:row r="166" spans="1:4">
       <x:c r="A166" s="5" t="s">
-        <x:v>171</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B166" s="5" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C166" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C166" s="5" t="s">
+        <x:v>179</x:v>
+      </x:c>
       <x:c r="D166" s="5" t="s">
-        <x:v>137</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:4">
       <x:c r="A167" s="5" t="s">
-        <x:v>168</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B167" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C167" s="5"/>
       <x:c r="D167" s="5" t="s">
-        <x:v>221</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="168" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A168" s="24" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B168" s="25"/>
-      <x:c r="C168" s="25"/>
-      <x:c r="D168" s="25"/>
+    <x:row r="168" spans="1:4">
+      <x:c r="A168" s="5" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B168" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C168" s="5"/>
+      <x:c r="D168" s="5" t="s">
+        <x:v>229</x:v>
+      </x:c>
     </x:row>
-    <x:row r="169" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A169" s="6"/>
-      <x:c r="B169" s="3"/>
-      <x:c r="C169" s="3"/>
-      <x:c r="D169" s="3"/>
+    <x:row r="169" spans="1:4">
+      <x:c r="A169" s="5" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B169" s="5" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C169" s="5"/>
+      <x:c r="D169" s="5" t="s">
+        <x:v>175</x:v>
+      </x:c>
     </x:row>
-    <x:row r="170" spans="1:4">
-      <x:c r="A170" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B170" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C170" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D170" s="4" t="s">
-        <x:v>55</x:v>
+    <x:row r="170" spans="1:4" ht="32.75">
+      <x:c r="A170" s="5" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B170" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C170" s="5"/>
+      <x:c r="D170" s="5" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="171" spans="1:4">
+    <x:row r="171" spans="1:4" ht="32.75">
       <x:c r="A171" s="5" t="s">
-        <x:v>175</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B171" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C171" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C171" s="5"/>
       <x:c r="D171" s="5" t="s">
-        <x:v>212</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:4">
       <x:c r="A172" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B172" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C172" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C172" s="5"/>
       <x:c r="D172" s="5" t="s">
-        <x:v>190</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
-    <x:row r="173" spans="1:4">
-      <x:c r="A173" s="5" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="B173" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C173" s="5" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="D173" s="5" t="s">
-        <x:v>170</x:v>
-      </x:c>
+    <x:row r="173" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A173" s="20" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B173" s="21"/>
+      <x:c r="C173" s="21"/>
+      <x:c r="D173" s="21"/>
     </x:row>
-    <x:row r="174" spans="1:4">
-      <x:c r="A174" s="5" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="B174" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C174" s="5" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D174" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
+    <x:row r="174" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A174" s="6"/>
+      <x:c r="B174" s="3"/>
+      <x:c r="C174" s="3"/>
+      <x:c r="D174" s="3"/>
     </x:row>
     <x:row r="175" spans="1:4">
-      <x:c r="A175" s="5" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="B175" s="5" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C175" s="5"/>
-      <x:c r="D175" s="5" t="s">
-        <x:v>211</x:v>
+      <x:c r="A175" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B175" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C175" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D175" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="176" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A176" s="8" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="B176" s="26"/>
-      <x:c r="C176" s="26"/>
-      <x:c r="D176" s="26"/>
+    <x:row r="176" spans="1:4">
+      <x:c r="A176" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B176" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C176" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D176" s="5" t="s">
+        <x:v>141</x:v>
+      </x:c>
     </x:row>
-    <x:row r="177" spans="1:4" ht="26.35000000000000142109">
-      <x:c r="A177" s="6" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="B177" s="3"/>
-      <x:c r="C177" s="3"/>
-      <x:c r="D177" s="3"/>
+    <x:row r="177" spans="1:4">
+      <x:c r="A177" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B177" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C177" s="5" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D177" s="5" t="s">
+        <x:v>76</x:v>
+      </x:c>
     </x:row>
     <x:row r="178" spans="1:4">
-      <x:c r="A178" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B178" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C178" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D178" s="4" t="s">
-        <x:v>55</x:v>
+      <x:c r="A178" s="5" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B178" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C178" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D178" s="5" t="s">
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:4">
       <x:c r="A179" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B179" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C179" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D179" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:4">
       <x:c r="A180" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B180" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C180" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C180" s="5"/>
       <x:c r="D180" s="5" t="s">
-        <x:v>218</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="181" spans="1:4">
-      <x:c r="A181" s="5" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="B181" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C181" s="5" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D181" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
+    <x:row r="181" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A181" s="8" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B181" s="22"/>
+      <x:c r="C181" s="22"/>
+      <x:c r="D181" s="22"/>
     </x:row>
-    <x:row r="182" spans="1:4">
-      <x:c r="A182" s="5" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="B182" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C182" s="5"/>
-      <x:c r="D182" s="5" t="s">
-        <x:v>214</x:v>
-      </x:c>
+    <x:row r="182" spans="1:4" ht="26.35000000000000142109">
+      <x:c r="A182" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B182" s="3"/>
+      <x:c r="C182" s="3"/>
+      <x:c r="D182" s="3"/>
     </x:row>
     <x:row r="183" spans="1:4">
-      <x:c r="A183" s="5" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="B183" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C183" s="5" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D183" s="5" t="s">
-        <x:v>18</x:v>
+      <x:c r="A183" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B183" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C183" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D183" s="4" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:4">
       <x:c r="A184" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B184" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C184" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C184" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
       <x:c r="D184" s="5" t="s">
-        <x:v>229</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:4">
       <x:c r="A185" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B185" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C185" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D185" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:4">
+      <x:c r="A186" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B186" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C186" s="5" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D186" s="5" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:4">
+      <x:c r="A187" s="5" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B187" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C187" s="5"/>
+      <x:c r="D187" s="5" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:4">
+      <x:c r="A188" s="5" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B188" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C188" s="5" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D188" s="5" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:4">
+      <x:c r="A189" s="5" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B189" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C189" s="5"/>
+      <x:c r="D189" s="5" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:4">
+      <x:c r="A190" s="5" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B190" s="5" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C190" s="5" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D190" s="5" t="s">
+        <x:v>57</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -20407,11 +20470,11 @@
     <x:mergeCell ref="A4:D4"/>
     <x:mergeCell ref="A1:D3"/>
     <x:mergeCell ref="A15:D15"/>
-    <x:mergeCell ref="B29:D29"/>
-    <x:mergeCell ref="B43:D43"/>
-    <x:mergeCell ref="B50:D50"/>
+    <x:mergeCell ref="B31:D31"/>
+    <x:mergeCell ref="B45:D45"/>
+    <x:mergeCell ref="B52:D52"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>